--- a/biology/Botanique/Urospermum_dalechampii/Urospermum_dalechampii.xlsx
+++ b/biology/Botanique/Urospermum_dalechampii/Urospermum_dalechampii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Urosperme de Daléchamps ou Lampistrelle commune (Urospermum dalechampii) est une espèce de plante à fleurs de la famille des Asteraceae (Composées).
 Elle est essentiellement méditerranéenne.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle doit son nom à ses fruits. Formé sur des racines grecques, le mot Urospermum signifie que la graine, ou plutôt le fruit, se termine par une sorte de queue, long bec creux et élargi. Jacques Daléchamps auquel est dédiée l'espèce, était un médecin naturaliste du XVIe siècle, auteur d'une Histoire générale des plantes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle doit son nom à ses fruits. Formé sur des racines grecques, le mot Urospermum signifie que la graine, ou plutôt le fruit, se termine par une sorte de queue, long bec creux et élargi. Jacques Daléchamps auquel est dédiée l'espèce, était un médecin naturaliste du XVIe siècle, auteur d'une Histoire générale des plantes.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace et velue dont la hauteur varie entre 10 et 50 cm.
 On distingue deux types de feuilles : à la base, une rosette de feuilles dentées rappelant celles des pissenlits ; sur la tige, des feuilles entières ou à peine découpées, assez rares.
@@ -577,7 +593,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante qui pousse dans les friches, au bord des chemins, dans les terrains vagues et les prés secs.
 </t>
@@ -608,7 +626,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa région d'origine s'étend de l'Espagne à la Dalmatie et à l'Afrique septentrionale.
 En France, on la trouve sur le pourtour méditerranéen : des Alpes-Maritimes aux Pyrénées-Orientales, elle remonte dans la Drôme, l'Ardèche, le Tarn, le Lot, l'Aveyron, la Lozère. Elle est très commune en Corse.
